--- a/db/seed/bigcDN.xlsx
+++ b/db/seed/bigcDN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baoqu\OneDrive\Desktop\DATN\IndoorMapServer\db\seed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E64318-5105-4EA8-944E-D8B4CE5C9E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042C27D9-16A0-4CCE-B7E0-BBE3A8FD0653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="285" windowWidth="16350" windowHeight="10410" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="floor_1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="412">
   <si>
     <t>name</t>
   </si>
@@ -683,15 +683,9 @@
     <t>280,160 234,160</t>
   </si>
   <si>
-    <t>a3a10</t>
-  </si>
-  <si>
     <t>280,160 308,160 308,210</t>
   </si>
   <si>
-    <t>a4a10</t>
-  </si>
-  <si>
     <t>314,140 314,210 308,210</t>
   </si>
   <si>
@@ -1122,6 +1116,153 @@
   </si>
   <si>
     <t>288,530 346,530 346,524</t>
+  </si>
+  <si>
+    <t>Hàng điện máy</t>
+  </si>
+  <si>
+    <t>Chăn-Gối-Đệm</t>
+  </si>
+  <si>
+    <t>Fahasa Books</t>
+  </si>
+  <si>
+    <t>Dụng cụ thể thao</t>
+  </si>
+  <si>
+    <t>Khuyến mãi</t>
+  </si>
+  <si>
+    <t>Thời trang nữ</t>
+  </si>
+  <si>
+    <t>Đồ lót nữ</t>
+  </si>
+  <si>
+    <t>Phòng thử đồ</t>
+  </si>
+  <si>
+    <t>Thời trang nam</t>
+  </si>
+  <si>
+    <t>Giày dép</t>
+  </si>
+  <si>
+    <t>Thời trang bé trai</t>
+  </si>
+  <si>
+    <t>Thời trang bé gái</t>
+  </si>
+  <si>
+    <t>Đồ chơi SToy's</t>
+  </si>
+  <si>
+    <t>Sách-Văn phòng phẩm</t>
+  </si>
+  <si>
+    <t>Dụng cụ gia đình-Đồ gia dụng</t>
+  </si>
+  <si>
+    <t>Mỹ phẩm (Health &amp; Beauty)</t>
+  </si>
+  <si>
+    <t>Quầy tính tiền (Checkout)</t>
+  </si>
+  <si>
+    <t>200,256 140,256 140,360 110,360 110,430</t>
+  </si>
+  <si>
+    <t>a1a6</t>
+  </si>
+  <si>
+    <t>200,256 218,256</t>
+  </si>
+  <si>
+    <t>a2a12</t>
+  </si>
+  <si>
+    <t>a2a8</t>
+  </si>
+  <si>
+    <t>110,430 110,360 140,360 140,394</t>
+  </si>
+  <si>
+    <t>110,430 110,490 136,490 136,514</t>
+  </si>
+  <si>
+    <t>a3a8</t>
+  </si>
+  <si>
+    <t>140,430 140,394</t>
+  </si>
+  <si>
+    <t>a3a12</t>
+  </si>
+  <si>
+    <t>a4a12</t>
+  </si>
+  <si>
+    <t>136,530 136,514</t>
+  </si>
+  <si>
+    <t>a6a17</t>
+  </si>
+  <si>
+    <t>218,256 294,256 294,340</t>
+  </si>
+  <si>
+    <t>a7a9</t>
+  </si>
+  <si>
+    <t>294,360 294,394</t>
+  </si>
+  <si>
+    <t>294,360 294,340</t>
+  </si>
+  <si>
+    <t>294,394 294,416 266,416 266,434</t>
+  </si>
+  <si>
+    <t>266,434 266,466</t>
+  </si>
+  <si>
+    <t>266,466 266,514</t>
+  </si>
+  <si>
+    <t>266,514 266,520</t>
+  </si>
+  <si>
+    <t>266,554 266,584</t>
+  </si>
+  <si>
+    <t>266,584 266,594</t>
+  </si>
+  <si>
+    <t>a16a20</t>
+  </si>
+  <si>
+    <t>266,594 326,594</t>
+  </si>
+  <si>
+    <t>a4a9</t>
+  </si>
+  <si>
+    <t>a3a9</t>
+  </si>
+  <si>
+    <t>140,580 140,530 136,530</t>
+  </si>
+  <si>
+    <t>136,514 140,514 140,430</t>
+  </si>
+  <si>
+    <t>140,430 140,256 200,256</t>
+  </si>
+  <si>
+    <t>266,514 266,554</t>
+  </si>
+  <si>
+    <t>326,594 326,530</t>
   </si>
 </sst>
 </file>
@@ -1168,7 +1309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1178,6 +1319,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2948,8 +3092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B231CEB4-623F-4688-B0E7-70AA0953CC95}">
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="I85" sqref="I85"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3194,15 +3338,15 @@
         <v>3</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -3224,10 +3368,10 @@
         <v>3</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>220</v>
+        <v>405</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -3254,10 +3398,10 @@
         <v>2</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -3287,7 +3431,7 @@
         <v>65</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -3314,10 +3458,10 @@
         <v>4</v>
       </c>
       <c r="I12" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -3344,10 +3488,10 @@
         <v>4</v>
       </c>
       <c r="I13" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -3374,10 +3518,10 @@
         <v>4</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -3407,7 +3551,7 @@
         <v>71</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -3434,10 +3578,10 @@
         <v>5</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -3464,10 +3608,10 @@
         <v>3</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -3494,10 +3638,10 @@
         <v>3</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -3524,10 +3668,10 @@
         <v>3</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -3554,10 +3698,10 @@
         <v>3</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -3584,10 +3728,10 @@
         <v>4</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -3614,10 +3758,10 @@
         <v>4</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -3647,7 +3791,7 @@
         <v>83</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -3674,10 +3818,10 @@
         <v>4</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -3704,10 +3848,10 @@
         <v>4</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -3734,10 +3878,10 @@
         <v>4</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -3764,10 +3908,10 @@
         <v>3</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -3793,10 +3937,10 @@
         <v>4</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -3804,10 +3948,10 @@
         <v>4</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -3815,10 +3959,10 @@
         <v>4</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -3826,10 +3970,10 @@
         <v>4</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -3837,10 +3981,10 @@
         <v>3</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="8:10" x14ac:dyDescent="0.25">
@@ -3848,10 +3992,10 @@
         <v>4</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34" spans="8:10" x14ac:dyDescent="0.25">
@@ -3859,10 +4003,10 @@
         <v>4</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="35" spans="8:10" x14ac:dyDescent="0.25">
@@ -3870,10 +4014,10 @@
         <v>4</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36" spans="8:10" x14ac:dyDescent="0.25">
@@ -3881,10 +4025,10 @@
         <v>4</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37" spans="8:10" x14ac:dyDescent="0.25">
@@ -3892,10 +4036,10 @@
         <v>4</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38" spans="8:10" x14ac:dyDescent="0.25">
@@ -3903,10 +4047,10 @@
         <v>4</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" spans="8:10" x14ac:dyDescent="0.25">
@@ -3914,10 +4058,10 @@
         <v>4</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40" spans="8:10" x14ac:dyDescent="0.25">
@@ -3925,10 +4069,10 @@
         <v>4</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="8:10" x14ac:dyDescent="0.25">
@@ -3936,10 +4080,10 @@
         <v>3</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42" spans="8:10" x14ac:dyDescent="0.25">
@@ -3947,10 +4091,10 @@
         <v>4</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="43" spans="8:10" x14ac:dyDescent="0.25">
@@ -3958,10 +4102,10 @@
         <v>4</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44" spans="8:10" x14ac:dyDescent="0.25">
@@ -3969,10 +4113,10 @@
         <v>4</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="45" spans="8:10" x14ac:dyDescent="0.25">
@@ -3980,10 +4124,10 @@
         <v>4</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="46" spans="8:10" x14ac:dyDescent="0.25">
@@ -3991,10 +4135,10 @@
         <v>4</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="47" spans="8:10" x14ac:dyDescent="0.25">
@@ -4002,10 +4146,10 @@
         <v>4</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="48" spans="8:10" x14ac:dyDescent="0.25">
@@ -4013,10 +4157,10 @@
         <v>4</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="49" spans="8:10" x14ac:dyDescent="0.25">
@@ -4024,10 +4168,10 @@
         <v>3</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="50" spans="8:10" x14ac:dyDescent="0.25">
@@ -4035,10 +4179,10 @@
         <v>4</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="51" spans="8:10" x14ac:dyDescent="0.25">
@@ -4046,10 +4190,10 @@
         <v>4</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="52" spans="8:10" x14ac:dyDescent="0.25">
@@ -4057,10 +4201,10 @@
         <v>4</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="53" spans="8:10" x14ac:dyDescent="0.25">
@@ -4068,10 +4212,10 @@
         <v>4</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="54" spans="8:10" x14ac:dyDescent="0.25">
@@ -4079,10 +4223,10 @@
         <v>4</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="55" spans="8:10" x14ac:dyDescent="0.25">
@@ -4090,10 +4234,10 @@
         <v>4</v>
       </c>
       <c r="I55" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="J55" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="56" spans="8:10" x14ac:dyDescent="0.25">
@@ -4101,10 +4245,10 @@
         <v>3</v>
       </c>
       <c r="I56" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J56" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="57" spans="8:10" x14ac:dyDescent="0.25">
@@ -4112,10 +4256,10 @@
         <v>4</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="58" spans="8:10" x14ac:dyDescent="0.25">
@@ -4126,7 +4270,7 @@
         <v>97</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="59" spans="8:10" x14ac:dyDescent="0.25">
@@ -4137,7 +4281,7 @@
         <v>99</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="60" spans="8:10" x14ac:dyDescent="0.25">
@@ -4145,10 +4289,10 @@
         <v>4</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="61" spans="8:10" x14ac:dyDescent="0.25">
@@ -4156,10 +4300,10 @@
         <v>2</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="62" spans="8:10" x14ac:dyDescent="0.25">
@@ -4167,10 +4311,10 @@
         <v>3</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="63" spans="8:10" x14ac:dyDescent="0.25">
@@ -4178,10 +4322,10 @@
         <v>3</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="64" spans="8:10" x14ac:dyDescent="0.25">
@@ -4189,10 +4333,10 @@
         <v>3</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="65" spans="8:10" x14ac:dyDescent="0.25">
@@ -4200,10 +4344,10 @@
         <v>3</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="66" spans="8:10" x14ac:dyDescent="0.25">
@@ -4211,10 +4355,10 @@
         <v>5</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="67" spans="8:10" x14ac:dyDescent="0.25">
@@ -4222,10 +4366,10 @@
         <v>3</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="68" spans="8:10" x14ac:dyDescent="0.25">
@@ -4233,10 +4377,10 @@
         <v>3</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="69" spans="8:10" x14ac:dyDescent="0.25">
@@ -4244,10 +4388,10 @@
         <v>5</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="70" spans="8:10" x14ac:dyDescent="0.25">
@@ -4255,10 +4399,10 @@
         <v>5</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="71" spans="8:10" x14ac:dyDescent="0.25">
@@ -4266,10 +4410,10 @@
         <v>3</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="72" spans="8:10" x14ac:dyDescent="0.25">
@@ -4277,10 +4421,10 @@
         <v>3</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="73" spans="8:10" x14ac:dyDescent="0.25">
@@ -4288,10 +4432,10 @@
         <v>5</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="74" spans="8:10" x14ac:dyDescent="0.25">
@@ -4299,10 +4443,10 @@
         <v>5</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="75" spans="8:10" x14ac:dyDescent="0.25">
@@ -4310,10 +4454,10 @@
         <v>3</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="76" spans="8:10" x14ac:dyDescent="0.25">
@@ -4321,10 +4465,10 @@
         <v>3</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="77" spans="8:10" x14ac:dyDescent="0.25">
@@ -4332,10 +4476,10 @@
         <v>4</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="78" spans="8:10" x14ac:dyDescent="0.25">
@@ -4343,10 +4487,10 @@
         <v>2</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="79" spans="8:10" x14ac:dyDescent="0.25">
@@ -4354,10 +4498,10 @@
         <v>4</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="80" spans="8:10" x14ac:dyDescent="0.25">
@@ -4368,7 +4512,7 @@
         <v>131</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="81" spans="8:10" x14ac:dyDescent="0.25">
@@ -4376,10 +4520,10 @@
         <v>3</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="82" spans="8:10" x14ac:dyDescent="0.25">
@@ -4387,10 +4531,10 @@
         <v>2</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="83" spans="8:10" x14ac:dyDescent="0.25">
@@ -4401,7 +4545,7 @@
         <v>148</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="84" spans="8:10" x14ac:dyDescent="0.25">
@@ -4409,10 +4553,10 @@
         <v>3</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -4426,13 +4570,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2764C9A7-A0A0-4290-97B1-A697604BAE36}">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" customWidth="1"/>
@@ -4470,7 +4614,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>363</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4482,165 +4626,647 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>180</v>
+        <v>256</v>
       </c>
       <c r="F2">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>430</v>
+      </c>
+      <c r="F3">
+        <v>110</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>430</v>
+      </c>
+      <c r="F4">
+        <v>140</v>
+      </c>
       <c r="G4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="2"/>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>530</v>
+      </c>
+      <c r="F5">
+        <v>136</v>
+      </c>
       <c r="G5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="2"/>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>580</v>
+      </c>
+      <c r="F6">
+        <v>140</v>
+      </c>
       <c r="G6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>367</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>256</v>
+      </c>
+      <c r="F7">
+        <v>218</v>
+      </c>
       <c r="G7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="2"/>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>368</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>360</v>
+      </c>
+      <c r="F8">
+        <v>294</v>
+      </c>
       <c r="G8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="2"/>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>369</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>394</v>
+      </c>
+      <c r="F9">
+        <v>140</v>
+      </c>
       <c r="G9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>370</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>394</v>
+      </c>
+      <c r="F10">
+        <v>294</v>
+      </c>
       <c r="G10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="2"/>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>434</v>
+      </c>
+      <c r="F11">
+        <v>266</v>
+      </c>
       <c r="G11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="2"/>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>372</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>466</v>
+      </c>
+      <c r="F12">
+        <v>266</v>
+      </c>
       <c r="G12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>373</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>514</v>
+      </c>
+      <c r="F13">
+        <v>136</v>
+      </c>
       <c r="G13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="2"/>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>374</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>514</v>
+      </c>
+      <c r="F14">
+        <v>266</v>
+      </c>
       <c r="G14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="2"/>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>375</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>554</v>
+      </c>
+      <c r="F15">
+        <v>266</v>
+      </c>
       <c r="G15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>376</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>584</v>
+      </c>
+      <c r="F16">
+        <v>266</v>
+      </c>
       <c r="G16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>594</v>
+      </c>
+      <c r="F17">
+        <v>266</v>
+      </c>
       <c r="G17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>378</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>340</v>
+      </c>
+      <c r="F18">
+        <v>294</v>
+      </c>
       <c r="G18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>379</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>520</v>
+      </c>
+      <c r="F19">
+        <v>266</v>
+      </c>
       <c r="G19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>183</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>530</v>
+      </c>
+      <c r="F20">
+        <v>326</v>
+      </c>
       <c r="G20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>594</v>
+      </c>
+      <c r="F21">
+        <v>326</v>
+      </c>
       <c r="G21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I29" s="1"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I30" s="1"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I31" s="1"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I32" s="1"/>
       <c r="J32" s="2"/>
     </row>
